--- a/Departments/LBST.xlsx
+++ b/Departments/LBST.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current Project\Course Requisites\DEPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98664017-0F15-4641-A958-5828CC80DAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A8BD58-C821-41B5-AD34-E340CE159985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E4B8D63-4519-4AED-9F72-1B11F0F18AB8}"/>
+    <workbookView xWindow="2540" yWindow="2540" windowWidth="14400" windowHeight="7360" xr2:uid="{8E4B8D63-4519-4AED-9F72-1B11F0F18AB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Course_Name</t>
   </si>
   <si>
-    <t>PREREQ_COURSES</t>
-  </si>
-  <si>
-    <t>COREQ_COURSES</t>
-  </si>
-  <si>
     <t>Acad_Group</t>
   </si>
   <si>
@@ -295,6 +289,12 @@
   </si>
   <si>
     <t>LBST 490 - Directed Readings in Labour Studies</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>CoRequisites</t>
   </si>
 </sst>
 </file>
@@ -649,7 +649,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I28"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -668,745 +668,745 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
         <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>44</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
         <v>45</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>47</v>
-      </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
         <v>51</v>
       </c>
-      <c r="D15" t="s">
+      <c r="H15" t="s">
         <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
         <v>51</v>
       </c>
-      <c r="D16" t="s">
+      <c r="H16" t="s">
         <v>52</v>
       </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>53</v>
-      </c>
-      <c r="H16" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
         <v>60</v>
       </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
         <v>61</v>
-      </c>
-      <c r="E19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
         <v>64</v>
       </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" t="s">
         <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
         <v>68</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
         <v>75</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Departments/LBST.xlsx
+++ b/Departments/LBST.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpattani\Documents\Course_Requisites\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A8BD58-C821-41B5-AD34-E340CE159985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DFCA85-9D93-47AA-88CD-596B80CD2646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="2540" windowWidth="14400" windowHeight="7360" xr2:uid="{8E4B8D63-4519-4AED-9F72-1B11F0F18AB8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8E4B8D63-4519-4AED-9F72-1B11F0F18AB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -649,7 +649,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="A2" sqref="A2:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -685,16 +685,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -703,41 +703,44 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -746,7 +749,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -763,7 +766,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -772,10 +775,10 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -785,14 +788,11 @@
       </c>
       <c r="H5" t="s">
         <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -827,10 +827,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -840,11 +840,14 @@
       </c>
       <c r="H7" t="s">
         <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -853,7 +856,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -866,14 +869,11 @@
       </c>
       <c r="H8" t="s">
         <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -882,7 +882,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -908,10 +908,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -921,11 +921,14 @@
       </c>
       <c r="H10" t="s">
         <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -934,10 +937,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -947,11 +950,14 @@
       </c>
       <c r="H11" t="s">
         <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -960,10 +966,10 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -973,14 +979,11 @@
       </c>
       <c r="H12" t="s">
         <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -989,7 +992,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -1006,45 +1009,42 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -1053,24 +1053,24 @@
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -1079,18 +1079,18 @@
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1099,7 +1099,7 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1151,10 +1151,10 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1164,23 +1164,20 @@
       </c>
       <c r="H19" t="s">
         <v>13</v>
-      </c>
-      <c r="I19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -1189,15 +1186,18 @@
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1206,10 +1206,10 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -1221,12 +1221,12 @@
         <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1235,7 +1235,7 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1261,7 +1261,7 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -1300,14 +1300,11 @@
       </c>
       <c r="H24" t="s">
         <v>13</v>
-      </c>
-      <c r="I24" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -1316,7 +1313,7 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -1333,7 +1330,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -1342,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -1359,16 +1356,16 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -1377,24 +1374,24 @@
         <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -1403,10 +1400,13 @@
         <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
+        <v>52</v>
+      </c>
+      <c r="I28" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
